--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frank\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frank\Documents\GitHub\CS467-Draco-python-game\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -56,10 +56,10 @@
     <t>Name</t>
   </si>
   <si>
-    <t>player.py</t>
-  </si>
-  <si>
     <t>Frank</t>
+  </si>
+  <si>
+    <t>NONE</t>
   </si>
 </sst>
 </file>
@@ -417,7 +417,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,10 +454,10 @@
       </c>
       <c r="B3">
         <f>SUM(C3:AA3)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -484,11 +484,11 @@
       </c>
       <c r="B6">
         <f>SUM(B3:B5)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <f>SUM(C3:C5)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -506,10 +506,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
         <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
